--- a/report/000858五粮液/000858.xlsx
+++ b/report/000858五粮液/000858.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayua/GitHub/stock/000858五粮液/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayua/GitHub/stock/report/000858五粮液/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D9B31F-9479-5641-A5DD-35F96B75FF14}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B362FD3-179A-9641-B38D-6159FF113BD2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-12520" windowWidth="51200" windowHeight="28340" xr2:uid="{8FF54A9F-FA3B-4D4B-A38D-39626F8E74F0}"/>
+    <workbookView xWindow="-32060" yWindow="-12200" windowWidth="51200" windowHeight="28340" activeTab="1" xr2:uid="{8FF54A9F-FA3B-4D4B-A38D-39626F8E74F0}"/>
   </bookViews>
   <sheets>
     <sheet name="收入" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -235,8 +236,8 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -287,8 +288,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1250,6 +1251,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>78.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>107.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1819,6 +1823,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.61399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.0021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4092,8 +4099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F576BF4A-84D9-4F42-AC28-2084AB25FD8F}">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="T35" sqref="T35"/>
+    <sheetView topLeftCell="A13" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4346,12 +4353,45 @@
         <v>0.42599999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="19">
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10" s="6">
+        <v>400.3</v>
+      </c>
+      <c r="C10" s="4">
+        <f>B10/B9-1</f>
+        <v>0.32593574031136141</v>
+      </c>
+      <c r="D10" s="6">
+        <v>104.87</v>
+      </c>
+      <c r="E10" s="4">
+        <f>D10/D9-1</f>
+        <v>0.24106508875739641</v>
+      </c>
+      <c r="F10">
+        <v>133.84</v>
+      </c>
+      <c r="G10" s="4">
+        <f>F10/F9-1</f>
+        <v>0.3840744570837642</v>
+      </c>
+      <c r="H10" s="5">
+        <v>3.4740000000000002</v>
+      </c>
+      <c r="I10" s="4">
+        <f>H10/H9-1</f>
+        <v>0.36342229199372067</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="19">
       <c r="A23" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" s="9" t="s">
         <v>8</v>
       </c>
@@ -4362,7 +4402,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" s="11" t="s">
         <v>11</v>
       </c>
@@ -4373,7 +4413,7 @@
         <v>0.40100000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" s="11" t="s">
         <v>12</v>
       </c>
@@ -4384,7 +4424,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" s="11" t="s">
         <v>13</v>
       </c>
@@ -4395,7 +4435,7 @@
         <v>0.29899999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" s="11" t="s">
         <v>14</v>
       </c>
@@ -4406,7 +4446,7 @@
         <v>0.26300000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29" s="11" t="s">
         <v>15</v>
       </c>
@@ -4416,8 +4456,12 @@
       <c r="C29">
         <v>0.54800000000000004</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="4">
+        <f>B29/B25-1</f>
+        <v>0.38975501113585742</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="11" t="s">
         <v>16</v>
       </c>
@@ -4427,8 +4471,12 @@
       <c r="C30">
         <v>0.33800000000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="4">
+        <f t="shared" ref="D30:D62" si="0">B30/B26-1</f>
+        <v>0.41233766233766223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="11" t="s">
         <v>17</v>
       </c>
@@ -4438,8 +4486,12 @@
       <c r="C31">
         <v>0.38400000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="4">
+        <f t="shared" si="0"/>
+        <v>0.29487179487179493</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="11" t="s">
         <v>18</v>
       </c>
@@ -4449,8 +4501,12 @@
       <c r="C32">
         <v>0.35299999999999998</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="4">
+        <f t="shared" si="0"/>
+        <v>0.15479115479115468</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="11" t="s">
         <v>19</v>
       </c>
@@ -4460,8 +4516,12 @@
       <c r="C33">
         <v>0.80400000000000005</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="4">
+        <f t="shared" si="0"/>
+        <v>0.31891025641025639</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="11" t="s">
         <v>20</v>
       </c>
@@ -4471,8 +4531,12 @@
       <c r="C34" s="5">
         <v>0.52600000000000002</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="4">
+        <f t="shared" si="0"/>
+        <v>0.56781609195402316</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="11" t="s">
         <v>21</v>
       </c>
@@ -4482,8 +4546,12 @@
       <c r="C35" s="5">
         <v>0.72599999999999998</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="4">
+        <f t="shared" si="0"/>
+        <v>0.20396039603960392</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="11" t="s">
         <v>22</v>
       </c>
@@ -4493,8 +4561,12 @@
       <c r="C36" s="5">
         <v>0.56100000000000005</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="4">
+        <f t="shared" si="0"/>
+        <v>0.29148936170212769</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="11" t="s">
         <v>23</v>
       </c>
@@ -4504,8 +4576,12 @@
       <c r="C37" s="5">
         <v>0.95599999999999996</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" s="4">
+        <f t="shared" si="0"/>
+        <v>5.4678007290400954E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="11" t="s">
         <v>24</v>
       </c>
@@ -4515,8 +4591,12 @@
       <c r="C38" s="5">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="4">
+        <f t="shared" si="0"/>
+        <v>2.9325513196480912E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="11" t="s">
         <v>25</v>
       </c>
@@ -4526,8 +4606,12 @@
       <c r="C39" s="5">
         <v>0.34599999999999997</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.39967105263157887</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="11" t="s">
         <v>26</v>
       </c>
@@ -4537,8 +4621,12 @@
       <c r="C40" s="5">
         <v>0.22900000000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" s="4">
+        <f t="shared" si="0"/>
+        <v>-8.5667215815486086E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="11" t="s">
         <v>27</v>
       </c>
@@ -4548,8 +4636,12 @@
       <c r="C41" s="5">
         <v>0.69</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.22580645161290314</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="11" t="s">
         <v>28</v>
       </c>
@@ -4559,8 +4651,12 @@
       <c r="C42" s="5">
         <v>0.36399999999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.2777777777777779</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="11" t="s">
         <v>29</v>
       </c>
@@ -4570,8 +4666,12 @@
       <c r="C43" s="5">
         <v>0.186</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" s="4">
+        <f t="shared" si="0"/>
+        <v>-6.5753424657534199E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="11" t="s">
         <v>30</v>
       </c>
@@ -4581,8 +4681,12 @@
       <c r="C44" s="5">
         <v>0.29699999999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" s="4">
+        <f t="shared" si="0"/>
+        <v>7.0270270270270219E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="11" t="s">
         <v>31</v>
       </c>
@@ -4592,8 +4696,12 @@
       <c r="C45" s="5">
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" s="4">
+        <f t="shared" si="0"/>
+        <v>2.9761904761904656E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="11" t="s">
         <v>32</v>
       </c>
@@ -4603,8 +4711,12 @@
       <c r="C46" s="5">
         <v>0.28899999999999998</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.3117408906882582E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="11" t="s">
         <v>33</v>
       </c>
@@ -4614,8 +4726,12 @@
       <c r="C47" s="5">
         <v>0.34399999999999997</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" s="4">
+        <f t="shared" si="0"/>
+        <v>0.14956011730205288</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="11" t="s">
         <v>34</v>
       </c>
@@ -4625,8 +4741,12 @@
       <c r="C48" s="5">
         <v>0.41399999999999998</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" s="4">
+        <f t="shared" si="0"/>
+        <v>9.9326599326599263E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="11" t="s">
         <v>48</v>
       </c>
@@ -4636,8 +4756,12 @@
       <c r="C49" s="5">
         <v>0.76500000000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" s="4">
+        <f t="shared" si="0"/>
+        <v>0.31008902077151324</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="11" t="s">
         <v>54</v>
       </c>
@@ -4647,8 +4771,12 @@
       <c r="C50" s="5">
         <v>0.25900000000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.1160714285714302E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="11" t="s">
         <v>55</v>
       </c>
@@ -4658,8 +4786,12 @@
       <c r="C51" s="5">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" s="4">
+        <f t="shared" si="0"/>
+        <v>0.13265306122448961</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="11" t="s">
         <v>56</v>
       </c>
@@ -4669,8 +4801,12 @@
       <c r="C52" s="5">
         <v>0.443</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" s="4">
+        <f t="shared" si="0"/>
+        <v>4.7473200612557553E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="11" t="s">
         <v>53</v>
       </c>
@@ -4680,8 +4816,12 @@
       <c r="C53" s="5">
         <v>0.94699999999999995</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" s="4">
+        <f t="shared" si="0"/>
+        <v>0.15062287655719131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="11" t="s">
         <v>57</v>
       </c>
@@ -4691,8 +4831,12 @@
       <c r="C54" s="5">
         <v>0.36299999999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" s="4">
+        <f t="shared" si="0"/>
+        <v>0.23250564334085788</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="11" t="s">
         <v>58</v>
       </c>
@@ -4702,8 +4846,12 @@
       <c r="C55" s="5">
         <v>0.52500000000000002</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" s="4">
+        <f t="shared" si="0"/>
+        <v>0.43243243243243246</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="11" t="s">
         <v>59</v>
       </c>
@@ -4713,8 +4861,12 @@
       <c r="C56" s="5">
         <v>0.71399999999999997</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" s="4">
+        <f t="shared" si="0"/>
+        <v>0.20029239766081863</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="11" t="s">
         <v>60</v>
       </c>
@@ -4724,8 +4876,12 @@
       <c r="C57" s="5">
         <v>1.3009999999999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" s="4">
+        <f t="shared" si="0"/>
+        <v>0.36811023622047245</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="11" t="s">
         <v>61</v>
       </c>
@@ -4735,8 +4891,12 @@
       <c r="C58" s="5">
         <v>0.55100000000000005</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" s="4">
+        <f t="shared" si="0"/>
+        <v>0.37728937728937728</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="11" t="s">
         <v>62</v>
       </c>
@@ -4746,27 +4906,47 @@
       <c r="C59" s="5">
         <v>0.61399999999999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" s="4">
+        <f t="shared" si="0"/>
+        <v>0.23113207547169812</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="5"/>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="B60" s="6">
+        <v>107.8</v>
+      </c>
+      <c r="C60" s="5">
+        <v>1.0021</v>
+      </c>
+      <c r="D60" s="4">
+        <f t="shared" si="0"/>
+        <v>0.31303288672350793</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="B61" s="6"/>
       <c r="C61" s="5"/>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" s="4">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="B62" s="6"/>
       <c r="C62" s="5"/>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" s="4">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="B63" s="6"/>
       <c r="C63" s="5"/>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:4">
       <c r="C64" s="5"/>
     </row>
   </sheetData>
@@ -4779,8 +4959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F802DA02-89C9-6543-A9F0-11329708A39B}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4900,8 +5080,27 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="A6">
+        <v>2018</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.216</v>
+      </c>
+      <c r="D6">
+        <v>3.39</v>
+      </c>
+      <c r="E6">
+        <v>148.30000000000001</v>
+      </c>
+      <c r="F6" s="6">
+        <v>3.8</v>
+      </c>
+      <c r="G6" s="6">
+        <v>3.2</v>
+      </c>
       <c r="K6" s="1">
         <v>43369</v>
       </c>
